--- a/teaching/traditional_assets/database/data/singapore/singapore_retail_online.xlsx
+++ b/teaching/traditional_assets/database/data/singapore/singapore_retail_online.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -590,23 +590,26 @@
           <t>Retail (Online)</t>
         </is>
       </c>
+      <c r="D2">
+        <v>0.22</v>
+      </c>
       <c r="G2">
-        <v>-0.2819905213270142</v>
+        <v>-0.1790464240903388</v>
       </c>
       <c r="H2">
-        <v>-0.285831018140219</v>
+        <v>-0.1838143036386449</v>
       </c>
       <c r="I2">
-        <v>-0.2849278091129521</v>
+        <v>-0.2104767879548306</v>
       </c>
       <c r="J2">
-        <v>-0.2849278091129521</v>
+        <v>-0.2104767879548306</v>
       </c>
       <c r="K2">
-        <v>-29.85</v>
+        <v>-5.649999999999999</v>
       </c>
       <c r="L2">
-        <v>-0.2439124039875797</v>
+        <v>-0.1772271016311167</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -630,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>5.739</v>
+        <v>2.222</v>
       </c>
       <c r="V2">
-        <v>0.1373623743417903</v>
+        <v>0.08693270735524257</v>
       </c>
       <c r="W2">
-        <v>-0.9752423118343903</v>
+        <v>-46.26682724474775</v>
       </c>
       <c r="X2">
-        <v>0.1449335829882494</v>
+        <v>0.07764728542239972</v>
       </c>
       <c r="Y2">
-        <v>-1.12017589482264</v>
+        <v>-46.34447453017015</v>
       </c>
       <c r="Z2">
-        <v>1.856934236217726</v>
+        <v>7.877440079070917</v>
       </c>
       <c r="AA2">
-        <v>-0.691218177100551</v>
+        <v>-3.090391251260817</v>
       </c>
       <c r="AB2">
-        <v>0.08514804336253726</v>
+        <v>0.07209091411472041</v>
       </c>
       <c r="AC2">
-        <v>-0.7779475775862961</v>
+        <v>-3.162482165375538</v>
       </c>
       <c r="AD2">
-        <v>56.51</v>
+        <v>2.94</v>
       </c>
       <c r="AE2">
-        <v>3.772326396215406</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>60.28232639621541</v>
+        <v>2.94</v>
       </c>
       <c r="AG2">
-        <v>54.54332639621541</v>
+        <v>0.718</v>
       </c>
       <c r="AH2">
-        <v>0.590642292065672</v>
+        <v>0.1031578947368421</v>
       </c>
       <c r="AI2">
-        <v>1.246318218712075</v>
+        <v>1.563829787234043</v>
       </c>
       <c r="AJ2">
-        <v>0.5662525209299505</v>
+        <v>0.02732323616713601</v>
       </c>
       <c r="AK2">
-        <v>1.279478964534089</v>
+        <v>-2.099415204678359</v>
       </c>
       <c r="AL2">
-        <v>7.676</v>
+        <v>0.205</v>
       </c>
       <c r="AM2">
-        <v>7.669</v>
+        <v>0.203</v>
       </c>
       <c r="AN2">
-        <v>-1.8237857027594</v>
+        <v>-0.5526315789473684</v>
       </c>
       <c r="AO2">
-        <v>-4.700364773319436</v>
+        <v>-32.73170731707317</v>
       </c>
       <c r="AP2">
-        <v>-1.76031390660692</v>
+        <v>-0.1349624060150376</v>
       </c>
       <c r="AQ2">
-        <v>-4.704655104968053</v>
+        <v>-33.05418719211822</v>
       </c>
     </row>
     <row r="3">
@@ -707,7 +710,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Reebonz Holding Limited (NasdaqGM:RBZ)</t>
+          <t>Y Ventures Group Ltd. (Catalist:1F1)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -716,22 +719,22 @@
         </is>
       </c>
       <c r="G3">
-        <v>-0.1473271276595745</v>
+        <v>-0.06557823129251701</v>
       </c>
       <c r="H3">
-        <v>-0.1515957446808511</v>
+        <v>-0.0707482993197279</v>
       </c>
       <c r="I3">
-        <v>-0.1974067612969105</v>
+        <v>-0.0554421768707483</v>
       </c>
       <c r="J3">
-        <v>-0.1974067612969105</v>
+        <v>-0.0554421768707483</v>
       </c>
       <c r="K3">
-        <v>-22.5</v>
+        <v>-0.76</v>
       </c>
       <c r="L3">
-        <v>-0.2992021276595744</v>
+        <v>-0.02585034013605442</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -755,73 +758,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>2.51</v>
+        <v>2.16</v>
       </c>
       <c r="V3">
-        <v>0.3540197461212976</v>
+        <v>0.1375796178343949</v>
       </c>
       <c r="W3">
-        <v>0.286624203821656</v>
+        <v>-0.2695035460992908</v>
       </c>
       <c r="X3">
-        <v>0.4494005805384242</v>
+        <v>0.07528958334349715</v>
       </c>
       <c r="Y3">
-        <v>-0.1627763767167681</v>
+        <v>-0.3447931294427879</v>
       </c>
       <c r="Z3">
-        <v>1.536420241738633</v>
+        <v>9.333333333333334</v>
       </c>
       <c r="AA3">
-        <v>-0.30329974391264</v>
+        <v>-0.5174603174603174</v>
       </c>
       <c r="AB3">
-        <v>0.08453408955462394</v>
+        <v>0.07224225050105636</v>
       </c>
       <c r="AC3">
-        <v>-0.3878338334672639</v>
+        <v>-0.5897025679613738</v>
       </c>
       <c r="AD3">
-        <v>47.9</v>
+        <v>1.25</v>
       </c>
       <c r="AE3">
-        <v>0.9149422476383621</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>48.81494224763836</v>
+        <v>1.25</v>
       </c>
       <c r="AG3">
-        <v>46.30494224763837</v>
+        <v>-0.9100000000000001</v>
       </c>
       <c r="AH3">
-        <v>0.8731775811771005</v>
+        <v>0.07374631268436578</v>
       </c>
       <c r="AI3">
-        <v>1.287485602082882</v>
+        <v>0.2626050420168067</v>
       </c>
       <c r="AJ3">
-        <v>0.8672158878435047</v>
+        <v>-0.06152805949966195</v>
       </c>
       <c r="AK3">
-        <v>1.307866622794084</v>
+        <v>-0.3500000000000001</v>
       </c>
       <c r="AL3">
-        <v>5.13</v>
+        <v>0.049</v>
       </c>
       <c r="AM3">
-        <v>5.123</v>
+        <v>0.047</v>
       </c>
       <c r="AN3">
-        <v>-3.753330199028365</v>
+        <v>-0.8116883116883117</v>
       </c>
       <c r="AO3">
-        <v>-3.001949317738791</v>
+        <v>-33.26530612244898</v>
       </c>
       <c r="AP3">
-        <v>-3.628345263096565</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="AQ3">
-        <v>-3.006051141909038</v>
+        <v>-34.68085106382978</v>
       </c>
     </row>
     <row r="4">
@@ -832,7 +835,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Y Ventures Group Ltd. (Catalist:1F1)</t>
+          <t>LifeBrandz Ltd. (Catalist:1D3)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -840,23 +843,26 @@
           <t>Retail (Online)</t>
         </is>
       </c>
+      <c r="D4">
+        <v>0.22</v>
+      </c>
       <c r="G4">
-        <v>-0.2150454545454545</v>
+        <v>-1.524193548387097</v>
       </c>
       <c r="H4">
-        <v>-0.2218181818181818</v>
+        <v>-1.524193548387097</v>
       </c>
       <c r="I4">
-        <v>-0.1945904914270418</v>
+        <v>-2.048387096774194</v>
       </c>
       <c r="J4">
-        <v>-0.1945904914270418</v>
+        <v>-2.048387096774194</v>
       </c>
       <c r="K4">
-        <v>-3.26</v>
+        <v>-4.89</v>
       </c>
       <c r="L4">
-        <v>-0.1481818181818182</v>
+        <v>-1.971774193548387</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -880,323 +886,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1.52</v>
+        <v>0.062</v>
       </c>
       <c r="V4">
-        <v>0.07169811320754717</v>
+        <v>0.006288032454361055</v>
       </c>
       <c r="W4">
-        <v>-0.5344262295081967</v>
+        <v>-92.26415094339622</v>
       </c>
       <c r="X4">
-        <v>0.08931466980154253</v>
+        <v>0.08000498750130229</v>
       </c>
       <c r="Y4">
-        <v>-0.6237408993097393</v>
+        <v>-92.34415593089751</v>
       </c>
       <c r="Z4">
-        <v>2.958996092163095</v>
+        <v>2.764771460423634</v>
       </c>
       <c r="AA4">
-        <v>-0.575792503704713</v>
+        <v>-5.663322185061316</v>
       </c>
       <c r="AB4">
-        <v>0.08923773997815262</v>
+        <v>0.07193957772838447</v>
       </c>
       <c r="AC4">
-        <v>-0.6650302436828657</v>
+        <v>-5.735261762789701</v>
       </c>
       <c r="AD4">
-        <v>1.85</v>
+        <v>1.69</v>
       </c>
       <c r="AE4">
-        <v>0.5599540569746038</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>2.409954056974604</v>
+        <v>1.69</v>
       </c>
       <c r="AG4">
-        <v>0.8899540569746036</v>
+        <v>1.628</v>
       </c>
       <c r="AH4">
-        <v>0.1020736444958342</v>
+        <v>0.1463203463203463</v>
       </c>
       <c r="AI4">
-        <v>0.4625672377568053</v>
+        <v>-0.5868055555555555</v>
       </c>
       <c r="AJ4">
-        <v>0.04028772783679072</v>
+        <v>0.1417130919220056</v>
       </c>
       <c r="AK4">
-        <v>0.2411829641326965</v>
+        <v>-0.5533650577838205</v>
       </c>
       <c r="AL4">
-        <v>0.141</v>
+        <v>0.156</v>
       </c>
       <c r="AM4">
-        <v>0.141</v>
+        <v>0.156</v>
       </c>
       <c r="AN4">
-        <v>-0.4557772850455777</v>
+        <v>-0.4470899470899471</v>
       </c>
       <c r="AO4">
-        <v>-32.05673758865248</v>
+        <v>-32.56410256410256</v>
       </c>
       <c r="AP4">
-        <v>-0.2192545102179363</v>
+        <v>-0.4306878306878307</v>
       </c>
       <c r="AQ4">
-        <v>-32.05673758865248</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Singapore</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>LifeBrandz Ltd. (Catalist:1D3)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Retail (Online)</t>
-        </is>
-      </c>
-      <c r="G5">
-        <v>-0.5022831050228311</v>
-      </c>
-      <c r="H5">
-        <v>-0.5022831050228311</v>
-      </c>
-      <c r="I5">
-        <v>-0.4645389295674339</v>
-      </c>
-      <c r="J5">
-        <v>-0.4645389295674339</v>
-      </c>
-      <c r="K5">
-        <v>-1.94</v>
-      </c>
-      <c r="L5">
-        <v>-0.4429223744292237</v>
-      </c>
-      <c r="M5">
-        <v>-0</v>
-      </c>
-      <c r="N5">
-        <v>-0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>-0</v>
-      </c>
-      <c r="Q5">
-        <v>-0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0.079</v>
-      </c>
-      <c r="V5">
-        <v>0.03305439330543933</v>
-      </c>
-      <c r="W5">
-        <v>-1.416058394160584</v>
-      </c>
-      <c r="X5">
-        <v>0.1851395147109618</v>
-      </c>
-      <c r="Y5">
-        <v>-1.601197908871546</v>
-      </c>
-      <c r="Z5">
-        <v>1.736439723679378</v>
-      </c>
-      <c r="AA5">
-        <v>-0.8066438504963891</v>
-      </c>
-      <c r="AB5">
-        <v>0.08422106099333751</v>
-      </c>
-      <c r="AC5">
-        <v>-0.8908649114897266</v>
-      </c>
-      <c r="AD5">
-        <v>2.76</v>
-      </c>
-      <c r="AE5">
-        <v>1.818402557526804</v>
-      </c>
-      <c r="AF5">
-        <v>4.578402557526804</v>
-      </c>
-      <c r="AG5">
-        <v>4.499402557526804</v>
-      </c>
-      <c r="AH5">
-        <v>0.6570232588789691</v>
-      </c>
-      <c r="AI5">
-        <v>1.046634939815721</v>
-      </c>
-      <c r="AJ5">
-        <v>0.6530903833760042</v>
-      </c>
-      <c r="AK5">
-        <v>1.047492638295922</v>
-      </c>
-      <c r="AL5">
-        <v>0.035</v>
-      </c>
-      <c r="AM5">
-        <v>0.035</v>
-      </c>
-      <c r="AN5">
-        <v>-2.206235011990407</v>
-      </c>
-      <c r="AO5">
-        <v>-64.57142857142856</v>
-      </c>
-      <c r="AP5">
-        <v>-3.596644730237253</v>
-      </c>
-      <c r="AQ5">
-        <v>-64.57142857142856</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Singapore</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>SAIS Limited (TSXV:SAIS)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Retail (Online)</t>
-        </is>
-      </c>
-      <c r="G6">
-        <v>-0.7932692307692307</v>
-      </c>
-      <c r="H6">
-        <v>-0.7932692307692307</v>
-      </c>
-      <c r="I6">
-        <v>-0.6590771878276503</v>
-      </c>
-      <c r="J6">
-        <v>-0.6590771878276503</v>
-      </c>
-      <c r="K6">
-        <v>-2.15</v>
-      </c>
-      <c r="L6">
-        <v>-0.1033653846153846</v>
-      </c>
-      <c r="M6">
-        <v>-0</v>
-      </c>
-      <c r="N6">
-        <v>-0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>-0</v>
-      </c>
-      <c r="Q6">
-        <v>-0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>1.63</v>
-      </c>
-      <c r="V6">
-        <v>0.1468468468468468</v>
-      </c>
-      <c r="W6">
-        <v>-50</v>
-      </c>
-      <c r="X6">
-        <v>0.104727651265537</v>
-      </c>
-      <c r="Y6">
-        <v>-50.10472765126553</v>
-      </c>
-      <c r="Z6">
-        <v>2.970568153120793</v>
-      </c>
-      <c r="AA6">
-        <v>-1.957833704609229</v>
-      </c>
-      <c r="AB6">
-        <v>0.08576199717045056</v>
-      </c>
-      <c r="AC6">
-        <v>-2.04359570177968</v>
-      </c>
-      <c r="AD6">
-        <v>4</v>
-      </c>
-      <c r="AE6">
-        <v>0.479027534075637</v>
-      </c>
-      <c r="AF6">
-        <v>4.479027534075637</v>
-      </c>
-      <c r="AG6">
-        <v>2.849027534075637</v>
-      </c>
-      <c r="AH6">
-        <v>0.2875036663410965</v>
-      </c>
-      <c r="AI6">
-        <v>5.154068609390915</v>
-      </c>
-      <c r="AJ6">
-        <v>0.2042456025780893</v>
-      </c>
-      <c r="AK6">
-        <v>-3.743929855089946</v>
-      </c>
-      <c r="AL6">
-        <v>2.37</v>
-      </c>
-      <c r="AM6">
-        <v>2.37</v>
-      </c>
-      <c r="AN6">
-        <v>-0.3097653527452955</v>
-      </c>
-      <c r="AO6">
-        <v>-5.864978902953586</v>
-      </c>
-      <c r="AP6">
-        <v>-0.2206325047684998</v>
-      </c>
-      <c r="AQ6">
-        <v>-5.864978902953586</v>
+        <v>-32.56410256410256</v>
       </c>
     </row>
   </sheetData>
